--- a/financial_models/3983.HK_Stock_Valuation_v30Dec2022.xlsx
+++ b/financial_models/3983.HK_Stock_Valuation_v30Dec2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\InvestmentProject\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B66F2A6-70D1-4A7B-8E2C-A1034FD590F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35D834E-894E-45E0-B595-39EB0E491969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3175,102 +3175,36 @@
     <xf numFmtId="183" fontId="2" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="11" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3278,10 +3212,6 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3296,30 +3226,100 @@
     <xf numFmtId="8" fontId="4" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="12" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3713,11 +3713,11 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="310" t="str">
+      <c r="C2" s="321" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>3983.HK : CHINA BLUECHEM</v>
       </c>
-      <c r="D2" s="311"/>
+      <c r="D2" s="322"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -3730,27 +3730,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="312" t="s">
+      <c r="C3" s="323" t="s">
         <v>348</v>
       </c>
-      <c r="D3" s="313"/>
+      <c r="D3" s="324"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="323" t="s">
+      <c r="I3" s="336" t="s">
         <v>350</v>
       </c>
-      <c r="J3" s="324"/>
+      <c r="J3" s="337"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="314" t="s">
+      <c r="C4" s="325" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="315"/>
+      <c r="D4" s="326"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>4</v>
@@ -3766,10 +3766,10 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="316">
+      <c r="C5" s="327">
         <v>44931</v>
       </c>
-      <c r="D5" s="315"/>
+      <c r="D5" s="326"/>
       <c r="E5" s="243" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -3777,19 +3777,19 @@
       <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="306">
+      <c r="I5" s="338">
         <v>1796000000</v>
       </c>
-      <c r="J5" s="307"/>
+      <c r="J5" s="339"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="319">
+      <c r="C6" s="330">
         <v>45001</v>
       </c>
-      <c r="D6" s="298"/>
+      <c r="D6" s="331"/>
       <c r="E6" s="243" t="b">
         <v>1</v>
       </c>
@@ -3797,11 +3797,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="273"/>
-      <c r="I6" s="325">
+      <c r="I6" s="340">
         <f>I4*I5/1000000</f>
         <v>3412.4</v>
       </c>
-      <c r="J6" s="326"/>
+      <c r="J6" s="341"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
@@ -3873,19 +3873,19 @@
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="327">
+      <c r="C11" s="342">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D11" s="328"/>
+      <c r="D11" s="343"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="329" t="s">
+      <c r="I11" s="344" t="s">
         <v>351</v>
       </c>
-      <c r="J11" s="330"/>
+      <c r="J11" s="345"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="133" t="s">
@@ -3925,10 +3925,10 @@
         <v>24</v>
       </c>
       <c r="H13" s="288"/>
-      <c r="I13" s="299">
+      <c r="I13" s="347">
         <v>0.20534521158129176</v>
       </c>
-      <c r="J13" s="299"/>
+      <c r="J13" s="347"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:13" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4115,14 +4115,14 @@
       <c r="B22" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="320"/>
-      <c r="D22" s="321"/>
-      <c r="E22" s="321"/>
-      <c r="F22" s="321"/>
-      <c r="G22" s="321"/>
-      <c r="H22" s="321"/>
-      <c r="I22" s="321"/>
-      <c r="J22" s="322"/>
+      <c r="C22" s="332"/>
+      <c r="D22" s="333"/>
+      <c r="E22" s="333"/>
+      <c r="F22" s="333"/>
+      <c r="G22" s="333"/>
+      <c r="H22" s="333"/>
+      <c r="I22" s="333"/>
+      <c r="J22" s="334"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4130,14 +4130,14 @@
       <c r="B23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="331"/>
-      <c r="D23" s="332"/>
-      <c r="E23" s="332"/>
-      <c r="F23" s="332"/>
-      <c r="G23" s="331"/>
-      <c r="H23" s="331"/>
-      <c r="I23" s="332"/>
-      <c r="J23" s="332"/>
+      <c r="C23" s="346"/>
+      <c r="D23" s="300"/>
+      <c r="E23" s="300"/>
+      <c r="F23" s="300"/>
+      <c r="G23" s="346"/>
+      <c r="H23" s="346"/>
+      <c r="I23" s="300"/>
+      <c r="J23" s="300"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4145,14 +4145,14 @@
       <c r="B24" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="297"/>
-      <c r="D24" s="298"/>
-      <c r="E24" s="298"/>
-      <c r="F24" s="298"/>
-      <c r="G24" s="297"/>
-      <c r="H24" s="297"/>
-      <c r="I24" s="298"/>
-      <c r="J24" s="298"/>
+      <c r="C24" s="335"/>
+      <c r="D24" s="331"/>
+      <c r="E24" s="331"/>
+      <c r="F24" s="331"/>
+      <c r="G24" s="335"/>
+      <c r="H24" s="335"/>
+      <c r="I24" s="331"/>
+      <c r="J24" s="331"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4188,162 +4188,162 @@
       <c r="B27" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="317"/>
-      <c r="D27" s="318"/>
-      <c r="E27" s="317"/>
-      <c r="F27" s="318"/>
-      <c r="G27" s="302"/>
-      <c r="H27" s="303"/>
-      <c r="I27" s="335" t="s">
+      <c r="C27" s="328"/>
+      <c r="D27" s="329"/>
+      <c r="E27" s="328"/>
+      <c r="F27" s="329"/>
+      <c r="G27" s="350"/>
+      <c r="H27" s="351"/>
+      <c r="I27" s="309" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="335"/>
+      <c r="J27" s="309"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="333">
+      <c r="C28" s="308">
         <f>C32/D26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="334"/>
-      <c r="E28" s="350">
+      <c r="D28" s="302"/>
+      <c r="E28" s="301">
         <f>E32/D26</f>
         <v>0</v>
       </c>
-      <c r="F28" s="334"/>
-      <c r="G28" s="304">
+      <c r="F28" s="302"/>
+      <c r="G28" s="352">
         <f>G32/D26</f>
         <v>0</v>
       </c>
-      <c r="H28" s="305"/>
-      <c r="I28" s="351">
+      <c r="H28" s="353"/>
+      <c r="I28" s="303">
         <f>C28+E28+G28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="351"/>
+      <c r="J28" s="303"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="348"/>
-      <c r="D29" s="332"/>
-      <c r="E29" s="348"/>
-      <c r="F29" s="332"/>
-      <c r="G29" s="306"/>
-      <c r="H29" s="307"/>
-      <c r="I29" s="349">
+      <c r="C29" s="299"/>
+      <c r="D29" s="300"/>
+      <c r="E29" s="299"/>
+      <c r="F29" s="300"/>
+      <c r="G29" s="338"/>
+      <c r="H29" s="339"/>
+      <c r="I29" s="320">
         <f>C29+E29+G29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="349"/>
+      <c r="J29" s="320"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="347"/>
-      <c r="D30" s="332"/>
-      <c r="E30" s="347"/>
-      <c r="F30" s="332"/>
-      <c r="G30" s="352"/>
-      <c r="H30" s="353"/>
-      <c r="I30" s="308"/>
-      <c r="J30" s="308"/>
+      <c r="C30" s="319"/>
+      <c r="D30" s="300"/>
+      <c r="E30" s="319"/>
+      <c r="F30" s="300"/>
+      <c r="G30" s="304"/>
+      <c r="H30" s="305"/>
+      <c r="I30" s="354"/>
+      <c r="J30" s="354"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="340">
+      <c r="C31" s="297">
         <f>C30*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="D31" s="341"/>
-      <c r="E31" s="340">
+      <c r="D31" s="298"/>
+      <c r="E31" s="297">
         <f>E30*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F31" s="341"/>
-      <c r="G31" s="354">
+      <c r="F31" s="298"/>
+      <c r="G31" s="306">
         <f>G30*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H31" s="355"/>
-      <c r="I31" s="309"/>
-      <c r="J31" s="309"/>
+      <c r="H31" s="307"/>
+      <c r="I31" s="355"/>
+      <c r="J31" s="355"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="342">
+      <c r="C32" s="314">
         <f>C29*C30</f>
         <v>0</v>
       </c>
-      <c r="D32" s="343"/>
-      <c r="E32" s="344">
+      <c r="D32" s="315"/>
+      <c r="E32" s="316">
         <f>E29*E30</f>
         <v>0</v>
       </c>
-      <c r="F32" s="345"/>
-      <c r="G32" s="300">
+      <c r="F32" s="317"/>
+      <c r="G32" s="348">
         <f>G29*G30</f>
         <v>0</v>
       </c>
-      <c r="H32" s="301"/>
-      <c r="I32" s="344">
+      <c r="H32" s="349"/>
+      <c r="I32" s="316">
         <f>C32+E32+G32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="344"/>
+      <c r="J32" s="316"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="336"/>
-      <c r="D33" s="337"/>
-      <c r="E33" s="346" t="str">
+      <c r="C33" s="310"/>
+      <c r="D33" s="311"/>
+      <c r="E33" s="318" t="str">
         <f>IF(C32=0,"-",(C32+E32)/(C29+E29))</f>
         <v>-</v>
       </c>
-      <c r="F33" s="334"/>
+      <c r="F33" s="302"/>
       <c r="G33" s="235"/>
       <c r="H33" s="235"/>
-      <c r="I33" s="346" t="str">
+      <c r="I33" s="318" t="str">
         <f>IF(I32=0,"",I32/I29)</f>
         <v/>
       </c>
-      <c r="J33" s="346"/>
+      <c r="J33" s="318"/>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="338"/>
-      <c r="D34" s="339"/>
-      <c r="E34" s="340" t="str">
+      <c r="C34" s="312"/>
+      <c r="D34" s="313"/>
+      <c r="E34" s="297" t="str">
         <f>IF(E33="-","-",E33*$I$5/1000000)</f>
         <v>-</v>
       </c>
-      <c r="F34" s="341"/>
+      <c r="F34" s="298"/>
       <c r="G34" s="236"/>
       <c r="H34" s="236"/>
-      <c r="I34" s="340" t="str">
+      <c r="I34" s="297" t="str">
         <f>IF(I33="","",I33*$I$5/1000000)</f>
         <v/>
       </c>
-      <c r="J34" s="340"/>
+      <c r="J34" s="297"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5317,12 +5317,30 @@
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="C33:D33"/>
@@ -5339,30 +5357,12 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
@@ -6284,7 +6284,7 @@
         <v>222095</v>
       </c>
       <c r="F26" s="31">
-        <f t="shared" ref="D26:M26" si="7">IF(F7="","",F22+F24)</f>
+        <f t="shared" ref="F26:M26" si="7">IF(F7="","",F22+F24)</f>
         <v>0</v>
       </c>
       <c r="G26" s="31">
@@ -7291,7 +7291,7 @@
       <c r="D52" s="356" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="332"/>
+      <c r="E52" s="300"/>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9879,7 +9879,7 @@
       <c r="D46" s="366">
         <v>0</v>
       </c>
-      <c r="E46" s="332"/>
+      <c r="E46" s="300"/>
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="2:9" ht="14" x14ac:dyDescent="0.3">
@@ -9890,7 +9890,7 @@
       <c r="D47" s="366">
         <v>0</v>
       </c>
-      <c r="E47" s="332"/>
+      <c r="E47" s="300"/>
       <c r="F47" s="6" t="s">
         <v>190</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>191</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="349">
+      <c r="D48" s="320">
         <f>Data!C26+D46+D47</f>
         <v>892512</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>139</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="349">
+      <c r="D52" s="320">
         <f>C10+C32</f>
         <v>1659687</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>196</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="349">
+      <c r="D53" s="320">
         <f>((Dashboard!I6*1000)+D48+E43-(C12+C25+C28+C29)-D52)</f>
         <v>2548263</v>
       </c>
@@ -11028,7 +11028,7 @@
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="310" t="s">
+      <c r="C59" s="321" t="s">
         <v>247</v>
       </c>
       <c r="D59" s="370"/>
